--- a/com.tenxertech.autoTesting/TestingData/CN274Data.xlsx
+++ b/com.tenxertech.autoTesting/TestingData/CN274Data.xlsx
@@ -26,10 +26,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>100 mA</t>
+    <t>Load Current</t>
   </si>
   <si>
-    <t>Load Current</t>
+    <t>1000 mA</t>
   </si>
 </sst>
 </file>
@@ -351,7 +351,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -361,12 +361,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
